--- a/data/2020-02-11/Senior Cubers Worldwide - Weekly Competition - 2020-02-11.xlsx
+++ b/data/2020-02-11/Senior Cubers Worldwide - Weekly Competition - 2020-02-11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A8554F-3B0E-4A0C-AE02-110016D41EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605B779B-1DBB-48AB-B8F7-A7767E55F351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="138">
   <si>
     <t>2x2x2</t>
   </si>
@@ -396,21 +396,6 @@
     <t>https://www.facebook.com/events/616423959107229/permalink/621392298610395/</t>
   </si>
   <si>
-    <t>1:04.00</t>
-  </si>
-  <si>
-    <t>1:02.00</t>
-  </si>
-  <si>
-    <t>0:59.00</t>
-  </si>
-  <si>
-    <t>1:13.00</t>
-  </si>
-  <si>
-    <t>0:58.0</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/events/616423959107229/permalink/620690745347217/</t>
   </si>
   <si>
@@ -451,6 +436,15 @@
   </si>
   <si>
     <t>Daniel Smith</t>
+  </si>
+  <si>
+    <t>1:02.80</t>
+  </si>
+  <si>
+    <t>1:13.73</t>
+  </si>
+  <si>
+    <t>1:05.31</t>
   </si>
 </sst>
 </file>
@@ -590,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -697,6 +691,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -920,8 +917,8 @@
   </sheetPr>
   <dimension ref="A1:K1032"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" activeCellId="2" sqref="F19 I19 J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1048,7 +1045,7 @@
         <v>12.93</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F5" s="15">
         <v>15.03</v>
@@ -1187,7 +1184,7 @@
         <v>18.350000000000001</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F9" s="19">
         <v>15.52</v>
@@ -1256,7 +1253,7 @@
         <v>18.79333333333334</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F11" s="19">
         <v>16.2</v>
@@ -1324,7 +1321,7 @@
         <v>19.48</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F13" s="19">
         <v>17.28</v>
@@ -1427,7 +1424,7 @@
         <v>23.45</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F16" s="19">
         <v>21.85</v>
@@ -1495,7 +1492,7 @@
         <v>23.99</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F18" s="19">
         <v>19.62</v>
@@ -1590,7 +1587,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>30</v>
@@ -1623,7 +1620,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>75</v>
@@ -1633,7 +1630,7 @@
         <v>28.956666666666663</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F22" s="19">
         <v>28.44</v>
@@ -1668,7 +1665,7 @@
         <v>29.37</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F23" s="19">
         <v>28.16</v>
@@ -1802,7 +1799,7 @@
         <v>35.21</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F27" s="19">
         <v>34.54</v>
@@ -1837,7 +1834,7 @@
         <v>38.799999999999997</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F28" s="19">
         <v>47.44</v>
@@ -1872,7 +1869,7 @@
         <v>40.880000000000003</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F29" s="19">
         <v>40.409999999999997</v>
@@ -1936,27 +1933,27 @@
       <c r="C31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="43">
+        <v>59.4</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="43">
+        <v>58.55</v>
+      </c>
+      <c r="K31" s="39" t="s">
         <v>121</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12.75">
@@ -2066,12 +2063,12 @@
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" ht="14.25">
+    <row r="41" spans="1:10" ht="12.75">
       <c r="B41" s="14"/>
       <c r="C41" s="13"/>
       <c r="D41" s="15"/>
       <c r="E41" s="33"/>
-      <c r="F41" s="35"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="15"/>
@@ -8143,8 +8140,8 @@
   </sheetPr>
   <dimension ref="A1:K1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" activeCellId="1" sqref="H17:I17 F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8565,7 +8562,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>75</v>
@@ -21502,7 +21499,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -21528,13 +21525,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -21554,7 +21551,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75">
@@ -21562,7 +21559,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>20</v>
@@ -21574,7 +21571,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75">
@@ -21582,7 +21579,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>20</v>
@@ -21594,7 +21591,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75">
@@ -21612,7 +21609,7 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75">
@@ -21620,7 +21617,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>30</v>
@@ -21630,7 +21627,7 @@
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75">
@@ -21648,7 +21645,7 @@
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75">
@@ -21666,7 +21663,7 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75">
@@ -21674,7 +21671,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>75</v>
@@ -21684,7 +21681,7 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75">

--- a/data/2020-02-11/Senior Cubers Worldwide - Weekly Competition - 2020-02-11.xlsx
+++ b/data/2020-02-11/Senior Cubers Worldwide - Weekly Competition - 2020-02-11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605B779B-1DBB-48AB-B8F7-A7767E55F351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF15EB2-06D9-46CC-86B7-CB3DCE9F7E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,9 +336,6 @@
     <t>https://www.facebook.com/events/176704156956327/permalink/180508603242549/</t>
   </si>
   <si>
-    <t>Deansie Brady</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/events/176704156956327/permalink/178556813437728/</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>1:05.31</t>
+  </si>
+  <si>
+    <t>Jamie Brady (Deansie)</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -696,6 +696,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -918,7 +919,7 @@
   <dimension ref="A1:K1032"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1045,7 +1046,7 @@
         <v>12.93</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="15">
         <v>15.03</v>
@@ -1184,7 +1185,7 @@
         <v>18.350000000000001</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="19">
         <v>15.52</v>
@@ -1253,7 +1254,7 @@
         <v>18.79333333333334</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="19">
         <v>16.2</v>
@@ -1321,7 +1322,7 @@
         <v>19.48</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="19">
         <v>17.28</v>
@@ -1424,7 +1425,7 @@
         <v>23.45</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" s="19">
         <v>21.85</v>
@@ -1492,7 +1493,7 @@
         <v>23.99</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" s="19">
         <v>19.62</v>
@@ -1517,8 +1518,8 @@
       <c r="A19" s="13">
         <v>16</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>101</v>
+      <c r="B19" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>30</v>
@@ -1544,7 +1545,7 @@
         <v>26.51</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75">
@@ -1552,7 +1553,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>20</v>
@@ -1579,7 +1580,7 @@
         <v>27.53</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -1587,7 +1588,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>30</v>
@@ -1612,7 +1613,7 @@
         <v>28.52</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75">
@@ -1620,7 +1621,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>75</v>
@@ -1630,7 +1631,7 @@
         <v>28.956666666666663</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22" s="19">
         <v>28.44</v>
@@ -1648,7 +1649,7 @@
         <v>29.24</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75">
@@ -1665,7 +1666,7 @@
         <v>29.37</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" s="19">
         <v>28.16</v>
@@ -1683,7 +1684,7 @@
         <v>24.51</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75">
@@ -1691,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>20</v>
@@ -1716,7 +1717,7 @@
         <v>30.87</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75">
@@ -1749,7 +1750,7 @@
         <v>37</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75">
@@ -1782,7 +1783,7 @@
         <v>39.46</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75">
@@ -1790,7 +1791,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>75</v>
@@ -1799,7 +1800,7 @@
         <v>35.21</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="19">
         <v>34.54</v>
@@ -1834,7 +1835,7 @@
         <v>38.799999999999997</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="19">
         <v>47.44</v>
@@ -1852,7 +1853,7 @@
         <v>35.6</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75">
@@ -1860,7 +1861,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>75</v>
@@ -1869,7 +1870,7 @@
         <v>40.880000000000003</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" s="19">
         <v>40.409999999999997</v>
@@ -1887,7 +1888,7 @@
         <v>31.38</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75">
@@ -1920,7 +1921,7 @@
         <v>32</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75">
@@ -1928,17 +1929,17 @@
         <v>28</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="43">
         <v>59.4</v>
@@ -1947,13 +1948,13 @@
         <v>32</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J31" s="43">
         <v>58.55</v>
       </c>
       <c r="K31" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12.75">
@@ -8130,6 +8131,7 @@
     <hyperlink ref="K31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -8562,7 +8564,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>75</v>
@@ -8719,7 +8721,7 @@
         <v>15.34</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
@@ -8727,7 +8729,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>20</v>
@@ -8752,7 +8754,7 @@
         <v>29.43</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75">
@@ -8785,7 +8787,7 @@
         <v>26.7</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -21499,7 +21501,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -21525,13 +21527,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -21551,7 +21553,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75">
@@ -21559,7 +21561,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>20</v>
@@ -21571,7 +21573,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75">
@@ -21579,7 +21581,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>20</v>
@@ -21591,7 +21593,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75">
@@ -21609,7 +21611,7 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75">
@@ -21617,7 +21619,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>30</v>
@@ -21627,7 +21629,7 @@
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75">
@@ -21645,7 +21647,7 @@
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75">
@@ -21663,7 +21665,7 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75">
@@ -21671,7 +21673,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>75</v>
@@ -21681,7 +21683,7 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75">

--- a/data/2020-02-11/Senior Cubers Worldwide - Weekly Competition - 2020-02-11.xlsx
+++ b/data/2020-02-11/Senior Cubers Worldwide - Weekly Competition - 2020-02-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF15EB2-06D9-46CC-86B7-CB3DCE9F7E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB72BBA-8B27-465E-95D3-94AF34DA8152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -918,7 +918,7 @@
   </sheetPr>
   <dimension ref="A1:K1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -21483,8 +21483,8 @@
   </sheetPr>
   <dimension ref="A1:F1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -21584,7 +21584,7 @@
         <v>127</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D6" s="41">
         <v>30</v>

--- a/data/2020-02-11/Senior Cubers Worldwide - Weekly Competition - 2020-02-11.xlsx
+++ b/data/2020-02-11/Senior Cubers Worldwide - Weekly Competition - 2020-02-11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB72BBA-8B27-465E-95D3-94AF34DA8152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391E298A-BA29-4A14-B7D7-920C2DBB6D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -366,9 +366,6 @@
     <t>https://www.facebook.com/events/616423959107229/permalink/617588112324147/</t>
   </si>
   <si>
-    <t>Jang Junho</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/events/616423959107229/permalink/618758058873819/</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>Jamie Brady (Deansie)</t>
+  </si>
+  <si>
+    <t>Jang Junho (장준호)</t>
   </si>
 </sst>
 </file>
@@ -918,8 +918,8 @@
   </sheetPr>
   <dimension ref="A1:K1032"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1046,7 +1046,7 @@
         <v>12.93</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="15">
         <v>15.03</v>
@@ -1185,7 +1185,7 @@
         <v>18.350000000000001</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="19">
         <v>15.52</v>
@@ -1254,7 +1254,7 @@
         <v>18.79333333333334</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="19">
         <v>16.2</v>
@@ -1322,7 +1322,7 @@
         <v>19.48</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="19">
         <v>17.28</v>
@@ -1425,7 +1425,7 @@
         <v>23.45</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="19">
         <v>21.85</v>
@@ -1493,7 +1493,7 @@
         <v>23.99</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" s="19">
         <v>19.62</v>
@@ -1519,7 +1519,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>30</v>
@@ -1588,7 +1588,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>30</v>
@@ -1621,7 +1621,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>75</v>
@@ -1631,7 +1631,7 @@
         <v>28.956666666666663</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" s="19">
         <v>28.44</v>
@@ -1666,7 +1666,7 @@
         <v>29.37</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="19">
         <v>28.16</v>
@@ -1692,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>20</v>
@@ -1717,7 +1717,7 @@
         <v>30.87</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75">
@@ -1750,7 +1750,7 @@
         <v>37</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75">
@@ -1783,7 +1783,7 @@
         <v>39.46</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75">
@@ -1791,7 +1791,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>75</v>
@@ -1800,7 +1800,7 @@
         <v>35.21</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27" s="19">
         <v>34.54</v>
@@ -1835,7 +1835,7 @@
         <v>38.799999999999997</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" s="19">
         <v>47.44</v>
@@ -1853,7 +1853,7 @@
         <v>35.6</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75">
@@ -1861,7 +1861,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>75</v>
@@ -1870,7 +1870,7 @@
         <v>40.880000000000003</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="19">
         <v>40.409999999999997</v>
@@ -1888,7 +1888,7 @@
         <v>31.38</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75">
@@ -1921,7 +1921,7 @@
         <v>32</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75">
@@ -1935,11 +1935,11 @@
         <v>20</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" s="43">
         <v>59.4</v>
@@ -1948,13 +1948,13 @@
         <v>32</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J31" s="43">
         <v>58.55</v>
       </c>
       <c r="K31" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12.75">
@@ -8564,7 +8564,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>75</v>
@@ -21483,7 +21483,7 @@
   </sheetPr>
   <dimension ref="A1:F1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -21501,7 +21501,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -21527,13 +21527,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -21553,7 +21553,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75">
@@ -21561,7 +21561,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>20</v>
@@ -21573,7 +21573,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75">
@@ -21581,7 +21581,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>75</v>
@@ -21593,7 +21593,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75">
@@ -21611,7 +21611,7 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75">
@@ -21619,7 +21619,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>30</v>
@@ -21629,7 +21629,7 @@
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75">
@@ -21647,7 +21647,7 @@
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75">
@@ -21673,7 +21673,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>75</v>
@@ -21683,7 +21683,7 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75">
